--- a/.info/data.xlsx
+++ b/.info/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hackathon\.info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC429BB4-2156-41DA-ADDC-D6469C63E575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411D3CE0-4C19-4683-8BED-6D263ACD1A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{FAB13C23-DE5D-472E-935F-E05D4E1F2ACF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FAB13C23-DE5D-472E-935F-E05D4E1F2ACF}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB3655F-B65E-4607-80C2-05FF423960AB}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91F01AF-D4F5-4E79-8454-FF697083C1D2}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
